--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.[BKIndexGroup]\BKI_TAD\ han-chinh-topica\SourceCode\BCTKApp\bin\Debug\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Ngày  &lt;tu_ngay&gt;</t>
   </si>
   <si>
     <t>Tên Phòng</t>
@@ -68,7 +65,10 @@
     <t>Ghi Chú</t>
   </si>
   <si>
-    <t>TRA CỨU BILL</t>
+    <t>BÁO CÁO DANH SÁCH BILL THEO THỜI GIAN</t>
+  </si>
+  <si>
+    <t>Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;</t>
   </si>
 </sst>
 </file>
@@ -174,15 +174,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -192,33 +189,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +507,7 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="8" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
@@ -529,1142 +520,1151 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="9"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="16" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="3"/>
     </row>
     <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
+      <c r="A62" s="3"/>
     </row>
     <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
+      <c r="A65" s="3"/>
     </row>
     <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="3"/>
     </row>
     <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="3"/>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="3"/>
     </row>
     <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="3"/>
     </row>
     <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="3"/>
     </row>
     <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="3"/>
     </row>
     <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="3"/>
     </row>
     <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="3"/>
     </row>
     <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="3"/>
     </row>
     <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="3"/>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="3"/>
     </row>
     <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="3"/>
     </row>
     <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="3"/>
     </row>
     <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" s="3"/>
     </row>
     <row r="80" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="3"/>
     </row>
     <row r="82" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="3"/>
     </row>
     <row r="83" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="3"/>
     </row>
     <row r="85" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="3"/>
     </row>
     <row r="86" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="3"/>
     </row>
     <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="3"/>
     </row>
     <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="3"/>
     </row>
     <row r="91" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="3"/>
     </row>
     <row r="93" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="3"/>
     </row>
     <row r="94" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="3"/>
     </row>
     <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="3"/>
     </row>
     <row r="96" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="3"/>
     </row>
     <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="3"/>
     </row>
     <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="3"/>
     </row>
     <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="3"/>
     </row>
     <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="3"/>
     </row>
     <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3"/>
     </row>
     <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="3"/>
     </row>
     <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
+      <c r="A104" s="3"/>
     </row>
     <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
+      <c r="A107" s="3"/>
     </row>
     <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
+      <c r="A108" s="3"/>
     </row>
     <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
+      <c r="A109" s="3"/>
     </row>
     <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
+      <c r="A110" s="3"/>
     </row>
     <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
+      <c r="A111" s="3"/>
     </row>
     <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
+      <c r="A112" s="3"/>
     </row>
     <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
+      <c r="A113" s="3"/>
     </row>
     <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
+      <c r="A114" s="3"/>
     </row>
     <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
+      <c r="A115" s="3"/>
     </row>
     <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
+      <c r="A116" s="3"/>
     </row>
     <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
+      <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
+      <c r="A118" s="3"/>
     </row>
     <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
+      <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
+      <c r="A121" s="3"/>
     </row>
     <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
+      <c r="A122" s="3"/>
     </row>
     <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
+      <c r="A123" s="3"/>
     </row>
     <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
+      <c r="A124" s="3"/>
     </row>
     <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
+      <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
+      <c r="A126" s="3"/>
     </row>
     <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
+      <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
+      <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
+      <c r="A130" s="3"/>
     </row>
     <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
+      <c r="A131" s="3"/>
     </row>
     <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
+      <c r="A132" s="3"/>
     </row>
     <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
+      <c r="A133" s="3"/>
     </row>
     <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
+      <c r="A134" s="3"/>
     </row>
     <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
+      <c r="A135" s="3"/>
     </row>
     <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
+      <c r="A136" s="3"/>
     </row>
     <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
+      <c r="A137" s="3"/>
     </row>
     <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
+      <c r="A138" s="3"/>
     </row>
     <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
+      <c r="A139" s="3"/>
     </row>
     <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
+      <c r="A140" s="3"/>
     </row>
     <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
+      <c r="A141" s="3"/>
     </row>
     <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
+      <c r="A142" s="3"/>
     </row>
     <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
+      <c r="A143" s="3"/>
     </row>
     <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
+      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
+      <c r="A145" s="3"/>
     </row>
     <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
+      <c r="A146" s="3"/>
     </row>
     <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
+      <c r="A147" s="3"/>
     </row>
     <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
+      <c r="A148" s="3"/>
     </row>
     <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
+      <c r="A149" s="3"/>
     </row>
     <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
+      <c r="A150" s="3"/>
     </row>
     <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
+      <c r="A151" s="3"/>
     </row>
     <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
+      <c r="A152" s="3"/>
     </row>
     <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
+      <c r="A153" s="3"/>
     </row>
     <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
+      <c r="A154" s="3"/>
     </row>
     <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
+      <c r="A155" s="3"/>
     </row>
     <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
+      <c r="A156" s="3"/>
     </row>
     <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
+      <c r="A157" s="3"/>
     </row>
     <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
+      <c r="A158" s="3"/>
     </row>
     <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
+      <c r="A159" s="3"/>
     </row>
     <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
+      <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="A161" s="3"/>
     </row>
     <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
+      <c r="A162" s="3"/>
     </row>
     <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
+      <c r="A163" s="3"/>
     </row>
     <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
+      <c r="A164" s="3"/>
     </row>
     <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
+      <c r="A165" s="3"/>
     </row>
     <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
+      <c r="A166" s="3"/>
     </row>
     <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
+      <c r="A167" s="3"/>
     </row>
     <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
+      <c r="A169" s="3"/>
     </row>
     <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
+      <c r="A171" s="5"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="6"/>
+      <c r="A172" s="5"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="6"/>
+      <c r="A173" s="5"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="6"/>
+      <c r="A174" s="5"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="6"/>
+      <c r="A175" s="5"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="6"/>
+      <c r="A176" s="5"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="6"/>
+      <c r="A177" s="5"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="6"/>
+      <c r="A178" s="5"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="6"/>
+      <c r="A179" s="5"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="6"/>
+      <c r="A180" s="5"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="6"/>
+      <c r="A181" s="5"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="6"/>
+      <c r="A182" s="5"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="6"/>
+      <c r="A183" s="5"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="6"/>
+      <c r="A184" s="5"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="6"/>
+      <c r="A185" s="5"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="6"/>
+      <c r="A186" s="5"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="6"/>
+      <c r="A187" s="5"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
+      <c r="A188" s="5"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="6"/>
+      <c r="A189" s="5"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="6"/>
+      <c r="A190" s="5"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="6"/>
+      <c r="A191" s="5"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="6"/>
+      <c r="A192" s="5"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="6"/>
+      <c r="A193" s="5"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="6"/>
+      <c r="A194" s="5"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="6"/>
+      <c r="A195" s="5"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="6"/>
+      <c r="A196" s="5"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="6"/>
+      <c r="A197" s="5"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="6"/>
+      <c r="A198" s="5"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="6"/>
+      <c r="A199" s="5"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="6"/>
+      <c r="A200" s="5"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
+      <c r="A201" s="5"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="6"/>
+      <c r="A202" s="5"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
+      <c r="A203" s="5"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="6"/>
+      <c r="A204" s="5"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
+      <c r="A205" s="5"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="6"/>
+      <c r="A206" s="5"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="6"/>
+      <c r="A207" s="5"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="6"/>
+      <c r="A208" s="5"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="6"/>
+      <c r="A209" s="5"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="6"/>
+      <c r="A210" s="5"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="6"/>
+      <c r="A211" s="5"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="6"/>
+      <c r="A212" s="5"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="6"/>
+      <c r="A213" s="5"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="6"/>
+      <c r="A214" s="5"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="6"/>
+      <c r="A215" s="5"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="6"/>
+      <c r="A216" s="5"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="6"/>
+      <c r="A217" s="5"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="6"/>
+      <c r="A218" s="5"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="6"/>
+      <c r="A219" s="5"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="6"/>
+      <c r="A220" s="5"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="6"/>
+      <c r="A221" s="5"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
+      <c r="A222" s="5"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="6"/>
+      <c r="A223" s="5"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="6"/>
+      <c r="A224" s="5"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="6"/>
+      <c r="A225" s="5"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="6"/>
+      <c r="A226" s="5"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="6"/>
+      <c r="A227" s="5"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="6"/>
+      <c r="A228" s="5"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="6"/>
+      <c r="A229" s="5"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="6"/>
+      <c r="A230" s="5"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
+      <c r="A231" s="5"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="6"/>
+      <c r="A232" s="5"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="6"/>
+      <c r="A233" s="5"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="6"/>
+      <c r="A234" s="5"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="6"/>
+      <c r="A235" s="5"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="6"/>
+      <c r="A236" s="5"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="6"/>
+      <c r="A237" s="5"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="6"/>
+      <c r="A238" s="5"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="6"/>
+      <c r="A239" s="5"/>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
+      <c r="A240" s="5"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="6"/>
+      <c r="A241" s="5"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="6"/>
+      <c r="A242" s="5"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="6"/>
+      <c r="A243" s="5"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="6"/>
+      <c r="A244" s="5"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="6"/>
+      <c r="A245" s="5"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="6"/>
+      <c r="A246" s="5"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="6"/>
+      <c r="A247" s="5"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="6"/>
+      <c r="A248" s="5"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
+      <c r="A249" s="5"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="6"/>
+      <c r="A250" s="5"/>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="6"/>
+      <c r="A251" s="5"/>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="6"/>
+      <c r="A252" s="5"/>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="6"/>
+      <c r="A253" s="5"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="6"/>
+      <c r="A254" s="5"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="6"/>
+      <c r="A255" s="5"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="6"/>
+      <c r="A256" s="5"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="6"/>
+      <c r="A257" s="5"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="6"/>
+      <c r="A258" s="5"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="6"/>
+      <c r="A259" s="5"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="6"/>
+      <c r="A260" s="5"/>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="6"/>
+      <c r="A261" s="5"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="6"/>
+      <c r="A262" s="5"/>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="6"/>
+      <c r="A263" s="5"/>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="6"/>
+      <c r="A264" s="5"/>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="6"/>
+      <c r="A265" s="5"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
+      <c r="A266" s="5"/>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="6"/>
+      <c r="A267" s="5"/>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="6"/>
+      <c r="A268" s="5"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="6"/>
+      <c r="A269" s="5"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="6"/>
+      <c r="A270" s="5"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="6"/>
+      <c r="A271" s="5"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="6"/>
+      <c r="A272" s="5"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="6"/>
+      <c r="A273" s="5"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="6"/>
+      <c r="A274" s="5"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="6"/>
+      <c r="A275" s="5"/>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="6"/>
+      <c r="A276" s="5"/>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="6"/>
+      <c r="A277" s="5"/>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="6"/>
+      <c r="A278" s="5"/>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
+      <c r="A279" s="5"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="6"/>
+      <c r="A280" s="5"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="6"/>
+      <c r="A281" s="5"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
+      <c r="A282" s="5"/>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
+      <c r="A283" s="5"/>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="6"/>
+      <c r="A284" s="5"/>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="6"/>
+      <c r="A285" s="5"/>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="6"/>
+      <c r="A286" s="5"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="6"/>
+      <c r="A287" s="5"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="6"/>
+      <c r="A288" s="5"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="6"/>
+      <c r="A289" s="5"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="6"/>
+      <c r="A290" s="5"/>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="6"/>
+      <c r="A291" s="5"/>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
+      <c r="A292" s="5"/>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="6"/>
+      <c r="A293" s="5"/>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="6"/>
+      <c r="A294" s="5"/>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
+      <c r="A295" s="5"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
+      <c r="A296" s="5"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="6"/>
+      <c r="A297" s="5"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
+      <c r="A298" s="5"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="6"/>
+      <c r="A299" s="5"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="5"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="6"/>
+      <c r="A301" s="5"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
+      <c r="A302" s="5"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="6"/>
+      <c r="A303" s="5"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
+      <c r="A304" s="5"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
+      <c r="A305" s="5"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="6"/>
+      <c r="A306" s="5"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
+      <c r="A307" s="5"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="6"/>
+      <c r="A308" s="5"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
+      <c r="A309" s="5"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="6"/>
+      <c r="A310" s="5"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
+      <c r="A311" s="5"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="6"/>
+      <c r="A312" s="5"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
+      <c r="A313" s="5"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="6"/>
+      <c r="A314" s="5"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
+      <c r="A315" s="5"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="6"/>
+      <c r="A316" s="5"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
+      <c r="A317" s="5"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="6"/>
+      <c r="A318" s="5"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
+      <c r="A319" s="5"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="6"/>
+      <c r="A320" s="5"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="6"/>
+      <c r="A321" s="5"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="6"/>
+      <c r="A322" s="5"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="6"/>
+      <c r="A323" s="5"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="6"/>
+      <c r="A324" s="5"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
+      <c r="A325" s="5"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="6"/>
+      <c r="A326" s="5"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="6"/>
+      <c r="A327" s="5"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
+      <c r="A328" s="5"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="6"/>
+      <c r="A329" s="5"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="6"/>
+      <c r="A330" s="5"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="6"/>
+      <c r="A331" s="5"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="6"/>
+      <c r="A332" s="5"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
+      <c r="A333" s="5"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
+      <c r="A334" s="5"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="6"/>
+      <c r="A335" s="5"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="6"/>
+      <c r="A336" s="5"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
+      <c r="A337" s="5"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="6"/>
+      <c r="A338" s="5"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
+      <c r="A339" s="5"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="6"/>
+      <c r="A340" s="5"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
+      <c r="A341" s="5"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="6"/>
+      <c r="A342" s="5"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
+      <c r="A343" s="5"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="6"/>
+      <c r="A344" s="5"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
+      <c r="A345" s="5"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="6"/>
+      <c r="A346" s="5"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
+      <c r="A347" s="5"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="6"/>
+      <c r="A348" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
@@ -27,9 +27,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
-  </si>
-  <si>
-    <t>Tên Phòng</t>
   </si>
   <si>
     <t>Ngày Gửi</t>
@@ -70,12 +67,15 @@
   <si>
     <t>Từ ngày  &lt;tu_ngay&gt;             Đến ngày &lt;den_ngay&gt;</t>
   </si>
+  <si>
+    <t>Phòng, ban: &lt;phong_ban&gt;                    Trạng thái: &lt;trang_thai&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -146,27 +153,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,20 +186,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,52 +488,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:L348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -554,113 +543,110 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1660,11 +1646,10 @@
       <c r="A348" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A2:M2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
+++ b/ han-chinh-topica/SourceCode/BCTKApp/bin/Debug/Reports/Templates/f405_Tra_cuc_so_Bill.xlsx
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -177,10 +177,30 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -190,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +232,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,25 +255,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,14 +556,14 @@
   <dimension ref="A1:L414"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
@@ -551,43 +577,43 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -607,1615 +633,1615 @@
       <c r="B5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="C15" s="12"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="C17" s="12"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="C18" s="12"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="C22" s="12"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="C25" s="12"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="C27" s="12"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="12"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="C33" s="12"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="C36" s="12"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="C37" s="12"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
-      <c r="C39" s="12"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="C40" s="12"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="C41" s="12"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="C42" s="12"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="C43" s="12"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="C44" s="12"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="C45" s="12"/>
+      <c r="C45" s="9"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="9"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="C48" s="12"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="C49" s="12"/>
+      <c r="C49" s="9"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="C51" s="12"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="C52" s="12"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="C53" s="12"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="C55" s="12"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="C58" s="12"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="C60" s="12"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="C61" s="12"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="C63" s="12"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="C65" s="12"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="C66" s="12"/>
+      <c r="C66" s="9"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="C67" s="12"/>
+      <c r="C67" s="9"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="C68" s="12"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="C69" s="12"/>
+      <c r="C69" s="9"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="C70" s="12"/>
+      <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="9"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="9"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="C76" s="12"/>
+      <c r="C76" s="9"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="C77" s="12"/>
+      <c r="C77" s="9"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="C78" s="12"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="C79" s="12"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="C80" s="12"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="C81" s="12"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="C82" s="12"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
-      <c r="C84" s="12"/>
+      <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="C85" s="12"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="9"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
-      <c r="C87" s="12"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
-      <c r="C88" s="12"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
-      <c r="C89" s="12"/>
+      <c r="C89" s="9"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="C90" s="12"/>
+      <c r="C90" s="9"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-      <c r="C91" s="12"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-      <c r="C92" s="12"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-      <c r="C93" s="12"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-      <c r="C94" s="12"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-      <c r="C96" s="12"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="C97" s="12"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="9"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
-      <c r="C99" s="12"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
-      <c r="C100" s="12"/>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
-      <c r="C101" s="12"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="9"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
-      <c r="C103" s="12"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-      <c r="C104" s="12"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="C105" s="12"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
-      <c r="C106" s="12"/>
+      <c r="C106" s="9"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="9"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
-      <c r="C108" s="12"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
-      <c r="C109" s="12"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
-      <c r="C110" s="12"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
-      <c r="C111" s="12"/>
+      <c r="C111" s="9"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
-      <c r="C112" s="12"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
-      <c r="C113" s="12"/>
+      <c r="C113" s="9"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
-      <c r="C114" s="12"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
-      <c r="C115" s="12"/>
+      <c r="C115" s="9"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
-      <c r="C116" s="12"/>
+      <c r="C116" s="9"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
-      <c r="C117" s="12"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
-      <c r="C118" s="12"/>
+      <c r="C118" s="9"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="C119" s="12"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="C120" s="12"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="C121" s="12"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="C123" s="12"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="C124" s="12"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="C125" s="12"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="C126" s="12"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="C127" s="12"/>
+      <c r="C127" s="9"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="C128" s="12"/>
+      <c r="C128" s="9"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-      <c r="C129" s="12"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="C130" s="12"/>
+      <c r="C130" s="9"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="C131" s="12"/>
+      <c r="C131" s="9"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="C132" s="12"/>
+      <c r="C132" s="9"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="C133" s="12"/>
+      <c r="C133" s="9"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-      <c r="C134" s="12"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="C135" s="12"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-      <c r="C136" s="12"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-      <c r="C137" s="12"/>
+      <c r="C137" s="9"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-      <c r="C138" s="12"/>
+      <c r="C138" s="9"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-      <c r="C139" s="12"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="C140" s="12"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="C141" s="12"/>
+      <c r="C141" s="9"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="C142" s="12"/>
+      <c r="C142" s="9"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-      <c r="C143" s="12"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-      <c r="C144" s="12"/>
+      <c r="C144" s="9"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-      <c r="C145" s="12"/>
+      <c r="C145" s="9"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="C146" s="12"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="C147" s="12"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-      <c r="C148" s="12"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="C149" s="12"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-      <c r="C150" s="12"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-      <c r="C151" s="12"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="C152" s="12"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="C153" s="12"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-      <c r="C154" s="12"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-      <c r="C155" s="12"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-      <c r="C156" s="12"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-      <c r="C157" s="12"/>
+      <c r="C157" s="9"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-      <c r="C158" s="12"/>
+      <c r="C158" s="9"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-      <c r="C159" s="12"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="C160" s="12"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="C161" s="12"/>
+      <c r="C161" s="9"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-      <c r="C162" s="12"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-      <c r="C163" s="12"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-      <c r="C164" s="12"/>
+      <c r="C164" s="9"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-      <c r="C165" s="12"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-      <c r="C166" s="12"/>
+      <c r="C166" s="9"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-      <c r="C167" s="12"/>
+      <c r="C167" s="9"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="C168" s="12"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
-      <c r="C169" s="12"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
-      <c r="C170" s="12"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
-      <c r="C171" s="12"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="C172" s="12"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
-      <c r="C173" s="12"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
-      <c r="C174" s="12"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="C175" s="12"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
-      <c r="C176" s="12"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
-      <c r="C177" s="12"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
-      <c r="C178" s="12"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
-      <c r="C179" s="12"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
-      <c r="C180" s="12"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3"/>
-      <c r="C181" s="12"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
-      <c r="C182" s="12"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3"/>
-      <c r="C183" s="12"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
-      <c r="C184" s="12"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
-      <c r="C185" s="12"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3"/>
-      <c r="C186" s="12"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
-      <c r="C187" s="12"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
-      <c r="C188" s="12"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
-      <c r="C189" s="12"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3"/>
-      <c r="C190" s="12"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3"/>
-      <c r="C191" s="12"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3"/>
-      <c r="C192" s="12"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3"/>
-      <c r="C193" s="12"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
-      <c r="C194" s="12"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
-      <c r="C195" s="12"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
-      <c r="C196" s="12"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
-      <c r="C197" s="12"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
-      <c r="C198" s="12"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3"/>
-      <c r="C199" s="12"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
-      <c r="C200" s="12"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
-      <c r="C201" s="12"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
-      <c r="C202" s="12"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
-      <c r="C203" s="12"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
-      <c r="C204" s="12"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
-      <c r="C205" s="12"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3"/>
-      <c r="C206" s="12"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3"/>
-      <c r="C207" s="12"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3"/>
-      <c r="C208" s="12"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3"/>
-      <c r="C209" s="12"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3"/>
-      <c r="C210" s="12"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3"/>
-      <c r="C211" s="12"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
-      <c r="C212" s="12"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
-      <c r="C213" s="12"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
-      <c r="C214" s="12"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
-      <c r="C215" s="12"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
-      <c r="C216" s="12"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
-      <c r="C217" s="12"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
-      <c r="C218" s="12"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
-      <c r="C219" s="12"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
-      <c r="C220" s="12"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
-      <c r="C221" s="12"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
-      <c r="C222" s="12"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
-      <c r="C223" s="12"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
-      <c r="C224" s="12"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
-      <c r="C225" s="12"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
-      <c r="C226" s="12"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
-      <c r="C227" s="12"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
-      <c r="C228" s="12"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
-      <c r="C229" s="12"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
-      <c r="C230" s="12"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
-      <c r="C231" s="12"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
-      <c r="C232" s="12"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
-      <c r="C233" s="12"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
-      <c r="C234" s="12"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
-      <c r="C235" s="12"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
-      <c r="C236" s="12"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
-      <c r="C237" s="12"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
-      <c r="C238" s="12"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
-      <c r="C239" s="12"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
-      <c r="C240" s="12"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
-      <c r="C241" s="12"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
-      <c r="C242" s="12"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
-      <c r="C243" s="12"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
-      <c r="C244" s="12"/>
+      <c r="C244" s="9"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
-      <c r="C245" s="12"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
-      <c r="C246" s="12"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
-      <c r="C247" s="12"/>
+      <c r="C247" s="9"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
-      <c r="C248" s="12"/>
+      <c r="C248" s="9"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
-      <c r="C249" s="12"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
-      <c r="C250" s="12"/>
+      <c r="C250" s="9"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
-      <c r="C251" s="12"/>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
-      <c r="C252" s="12"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
-      <c r="C253" s="12"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
-      <c r="C254" s="12"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
-      <c r="C255" s="12"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
-      <c r="C256" s="12"/>
+      <c r="C256" s="9"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
-      <c r="C257" s="12"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
-      <c r="C258" s="12"/>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
-      <c r="C259" s="12"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
-      <c r="C260" s="12"/>
+      <c r="C260" s="9"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
-      <c r="C261" s="12"/>
+      <c r="C261" s="9"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
-      <c r="C262" s="12"/>
+      <c r="C262" s="9"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
-      <c r="C263" s="12"/>
+      <c r="C263" s="9"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
-      <c r="C264" s="12"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
-      <c r="C265" s="12"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
-      <c r="C266" s="12"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="3"/>
-      <c r="C267" s="12"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
-      <c r="C268" s="12"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
-      <c r="C269" s="12"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
-      <c r="C270" s="12"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
-      <c r="C271" s="12"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
-      <c r="C272" s="12"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
-      <c r="C273" s="12"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
-      <c r="C274" s="12"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
-      <c r="C275" s="12"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
-      <c r="C276" s="12"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="3"/>
-      <c r="C277" s="12"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="3"/>
-      <c r="C278" s="12"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="3"/>
-      <c r="C279" s="12"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="3"/>
-      <c r="C280" s="12"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
-      <c r="C281" s="12"/>
+      <c r="C281" s="9"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
-      <c r="C282" s="12"/>
+      <c r="C282" s="9"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
-      <c r="C283" s="12"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
-      <c r="C284" s="12"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
-      <c r="C285" s="12"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
-      <c r="C286" s="12"/>
+      <c r="C286" s="9"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
-      <c r="C287" s="12"/>
+      <c r="C287" s="9"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
-      <c r="C288" s="12"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
-      <c r="C289" s="12"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
-      <c r="C290" s="12"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
-      <c r="C291" s="12"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
-      <c r="C292" s="12"/>
+      <c r="C292" s="9"/>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
-      <c r="C293" s="12"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-      <c r="C294" s="12"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="3"/>
-      <c r="C295" s="12"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
-      <c r="C296" s="12"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
-      <c r="C297" s="12"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
-      <c r="C298" s="12"/>
+      <c r="C298" s="9"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
-      <c r="C299" s="12"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
-      <c r="C300" s="12"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
-      <c r="C301" s="12"/>
+      <c r="C301" s="9"/>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
-      <c r="C302" s="12"/>
+      <c r="C302" s="9"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
-      <c r="C303" s="12"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
-      <c r="C304" s="12"/>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="3"/>
-      <c r="C305" s="12"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
-      <c r="C306" s="12"/>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="3"/>
-      <c r="C307" s="12"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
-      <c r="C308" s="12"/>
+      <c r="C308" s="9"/>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
-      <c r="C309" s="12"/>
+      <c r="C309" s="9"/>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
-      <c r="C310" s="12"/>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
-      <c r="C311" s="12"/>
+      <c r="C311" s="9"/>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
-      <c r="C312" s="12"/>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
-      <c r="C313" s="12"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
-      <c r="C314" s="12"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="3"/>
-      <c r="C315" s="12"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
-      <c r="C316" s="12"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
-      <c r="C317" s="12"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
-      <c r="C318" s="12"/>
+      <c r="C318" s="9"/>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
-      <c r="C319" s="12"/>
+      <c r="C319" s="9"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
-      <c r="C320" s="12"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
-      <c r="C321" s="12"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
-      <c r="C322" s="12"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
-      <c r="C323" s="12"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
-      <c r="C324" s="12"/>
+      <c r="C324" s="9"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
-      <c r="C325" s="12"/>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
-      <c r="C326" s="12"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
-      <c r="C327" s="12"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="3"/>
-      <c r="C328" s="12"/>
+      <c r="C328" s="9"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="3"/>
-      <c r="C329" s="12"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
-      <c r="C330" s="12"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
-      <c r="C331" s="12"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="3"/>
-      <c r="C332" s="12"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
-      <c r="C333" s="12"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="3"/>
-      <c r="C334" s="12"/>
+      <c r="C334" s="9"/>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
-      <c r="C335" s="12"/>
+      <c r="C335" s="9"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
-      <c r="C336" s="12"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
-      <c r="C337" s="12"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
-      <c r="C338" s="12"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
-      <c r="C339" s="12"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
-      <c r="C340" s="12"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="3"/>
-      <c r="C341" s="12"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="3"/>
-      <c r="C342" s="12"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
-      <c r="C343" s="12"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
-      <c r="C344" s="12"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
-      <c r="C345" s="12"/>
+      <c r="C345" s="9"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
-      <c r="C346" s="12"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
-      <c r="C347" s="12"/>
+      <c r="C347" s="9"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="3"/>
-      <c r="C348" s="12"/>
+      <c r="C348" s="9"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C349" s="12"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C350" s="12"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C351" s="12"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C352" s="12"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C353" s="12"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C354" s="12"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C355" s="12"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C356" s="12"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C357" s="12"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C358" s="12"/>
+      <c r="C358" s="9"/>
     </row>
     <row r="359" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C359" s="12"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C360" s="12"/>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C361" s="12"/>
+      <c r="C361" s="9"/>
     </row>
     <row r="362" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C362" s="12"/>
+      <c r="C362" s="9"/>
     </row>
     <row r="363" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C363" s="12"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C364" s="12"/>
+      <c r="C364" s="9"/>
     </row>
     <row r="365" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C365" s="12"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C366" s="12"/>
+      <c r="C366" s="9"/>
     </row>
     <row r="367" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C367" s="12"/>
+      <c r="C367" s="9"/>
     </row>
     <row r="368" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C368" s="12"/>
+      <c r="C368" s="9"/>
     </row>
     <row r="369" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C369" s="12"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C370" s="12"/>
+      <c r="C370" s="9"/>
     </row>
     <row r="371" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C371" s="12"/>
+      <c r="C371" s="9"/>
     </row>
     <row r="372" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C372" s="12"/>
+      <c r="C372" s="9"/>
     </row>
     <row r="373" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C373" s="12"/>
+      <c r="C373" s="9"/>
     </row>
     <row r="374" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C374" s="12"/>
+      <c r="C374" s="9"/>
     </row>
     <row r="375" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C375" s="12"/>
+      <c r="C375" s="9"/>
     </row>
     <row r="376" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C376" s="12"/>
+      <c r="C376" s="9"/>
     </row>
     <row r="377" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C377" s="12"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C378" s="12"/>
+      <c r="C378" s="9"/>
     </row>
     <row r="379" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C379" s="12"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C380" s="12"/>
+      <c r="C380" s="9"/>
     </row>
     <row r="381" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C381" s="12"/>
+      <c r="C381" s="9"/>
     </row>
     <row r="382" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C382" s="12"/>
+      <c r="C382" s="9"/>
     </row>
     <row r="383" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C383" s="12"/>
+      <c r="C383" s="9"/>
     </row>
     <row r="384" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C384" s="12"/>
+      <c r="C384" s="9"/>
     </row>
     <row r="385" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C385" s="12"/>
+      <c r="C385" s="9"/>
     </row>
     <row r="386" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C386" s="12"/>
+      <c r="C386" s="9"/>
     </row>
     <row r="387" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C387" s="12"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C388" s="12"/>
+      <c r="C388" s="9"/>
     </row>
     <row r="389" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C389" s="12"/>
+      <c r="C389" s="9"/>
     </row>
     <row r="390" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C390" s="12"/>
+      <c r="C390" s="9"/>
     </row>
     <row r="391" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C391" s="12"/>
+      <c r="C391" s="9"/>
     </row>
     <row r="392" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C392" s="12"/>
+      <c r="C392" s="9"/>
     </row>
     <row r="393" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C393" s="12"/>
+      <c r="C393" s="9"/>
     </row>
     <row r="394" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C394" s="12"/>
+      <c r="C394" s="9"/>
     </row>
     <row r="395" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C395" s="12"/>
+      <c r="C395" s="9"/>
     </row>
     <row r="396" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C396" s="12"/>
+      <c r="C396" s="9"/>
     </row>
     <row r="397" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C397" s="12"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C398" s="12"/>
+      <c r="C398" s="9"/>
     </row>
     <row r="399" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C399" s="12"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C400" s="12"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C401" s="12"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C402" s="12"/>
+      <c r="C402" s="9"/>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C403" s="12"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C404" s="12"/>
+      <c r="C404" s="9"/>
     </row>
     <row r="405" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C405" s="12"/>
+      <c r="C405" s="9"/>
     </row>
     <row r="406" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C406" s="12"/>
+      <c r="C406" s="9"/>
     </row>
     <row r="407" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C407" s="12"/>
+      <c r="C407" s="9"/>
     </row>
     <row r="408" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C408" s="12"/>
+      <c r="C408" s="9"/>
     </row>
     <row r="409" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C409" s="12"/>
+      <c r="C409" s="9"/>
     </row>
     <row r="410" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C410" s="12"/>
+      <c r="C410" s="9"/>
     </row>
     <row r="411" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C411" s="12"/>
+      <c r="C411" s="9"/>
     </row>
     <row r="412" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C412" s="12"/>
+      <c r="C412" s="9"/>
     </row>
     <row r="413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C413" s="12"/>
+      <c r="C413" s="9"/>
     </row>
     <row r="414" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C414" s="12"/>
+      <c r="C414" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
